--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FB8BD11-CA2B-4938-AA44-DB43F9A7D50B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>firnut</t>
   </si>
@@ -83,9 +84,6 @@
   </si>
   <si>
     <t>Shortblades Mountains</t>
-  </si>
-  <si>
-    <t>20 maple frames + 800 space</t>
   </si>
   <si>
     <t>forest</t>
@@ -161,26 +159,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>learn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cave 22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>firnut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>harenut</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roof of Cloth : Waxed Cotton Fabric</t>
+  </si>
+  <si>
+    <t>Wall of Cloth : Hemp Fabric</t>
+  </si>
+  <si>
+    <t>(20 frames/vaults + 800 free space).</t>
+  </si>
+  <si>
+    <t>Framework : Pine Plank</t>
+  </si>
+  <si>
+    <t>Roof of Cloth : Hemp Fabric</t>
+  </si>
+  <si>
+    <t>Wall of Cloth : Linen Fabric (NPC item)</t>
+  </si>
+  <si>
+    <t>Tent (1 fabric wall, 1 fabric roof + 150 free space)</t>
+  </si>
+  <si>
+    <t>Quarry (Kingfalcon Mountains) (20 frames/vaults + 800 free space).</t>
+  </si>
+  <si>
+    <t>Framework : Maple Plank</t>
+  </si>
+  <si>
+    <t>Mine (Shortblades Mountains) (20 frames/vaults + 800 free space).</t>
+  </si>
+  <si>
+    <t>Mine (Loudthunder forest) (20 frames/vaults + 800 free space).</t>
+  </si>
+  <si>
+    <t>Framework : Fir Plank (NPC item)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,13 +539,13 @@
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2">
         <v>43186</v>
@@ -527,7 +553,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2">
         <v>43186</v>
@@ -589,12 +615,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -602,12 +628,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -617,65 +643,130 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +777,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -701,13 +792,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1">
         <v>15</v>
@@ -715,10 +806,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
@@ -726,10 +817,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>7.0000000000000007E-2</v>
@@ -737,10 +828,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>0.04</v>
@@ -751,10 +842,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -762,10 +853,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
@@ -773,10 +864,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>7.0000000000000007E-2</v>
@@ -784,10 +875,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>0.04</v>
@@ -798,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -809,10 +900,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>0.1</v>
@@ -820,10 +911,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>7.0000000000000007E-2</v>
@@ -831,7 +922,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>0.04</v>
@@ -842,24 +933,24 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>0.1</v>
@@ -867,10 +958,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1">
         <v>0.1</v>
@@ -878,10 +969,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>7.0000000000000007E-2</v>
@@ -892,24 +983,24 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1">
         <v>0.1</v>
@@ -917,7 +1008,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
         <v>7.0000000000000007E-2</v>
@@ -925,10 +1016,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1">
         <v>0.04</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FB8BD11-CA2B-4938-AA44-DB43F9A7D50B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="4" r:id="rId1"/>
@@ -21,23 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>firnut</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>tinnut</t>
   </si>
   <si>
-    <t>pine framework</t>
-  </si>
-  <si>
-    <t>maple framework</t>
-  </si>
-  <si>
     <t>build</t>
   </si>
   <si>
@@ -47,9 +37,6 @@
     <t>orchisnut</t>
   </si>
   <si>
-    <t>commerce</t>
-  </si>
-  <si>
     <t>mine for ruby</t>
   </si>
   <si>
@@ -78,12 +65,6 @@
   </si>
   <si>
     <t>Loudthunder forest</t>
-  </si>
-  <si>
-    <t>mine for turquoise</t>
-  </si>
-  <si>
-    <t>Shortblades Mountains</t>
   </si>
   <si>
     <t>forest</t>
@@ -159,14 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>firnut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harenut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Roof of Cloth : Waxed Cotton Fabric</t>
   </si>
   <si>
@@ -194,19 +167,19 @@
     <t>Framework : Maple Plank</t>
   </si>
   <si>
-    <t>Mine (Shortblades Mountains) (20 frames/vaults + 800 free space).</t>
-  </si>
-  <si>
     <t>Mine (Loudthunder forest) (20 frames/vaults + 800 free space).</t>
   </si>
   <si>
     <t>Framework : Fir Plank (NPC item)</t>
+  </si>
+  <si>
+    <t>Beastarium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,10 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,241 +515,146 @@
     <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2">
-        <v>43186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -792,13 +669,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>15</v>
@@ -806,10 +683,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
@@ -817,10 +694,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>7.0000000000000007E-2</v>
@@ -828,10 +705,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>0.04</v>
@@ -839,13 +716,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -853,10 +730,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
@@ -864,10 +741,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>7.0000000000000007E-2</v>
@@ -875,10 +752,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>0.04</v>
@@ -889,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -900,10 +777,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>0.1</v>
@@ -911,10 +788,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>7.0000000000000007E-2</v>
@@ -922,7 +799,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>0.04</v>
@@ -930,27 +807,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>0.1</v>
@@ -958,10 +835,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>0.1</v>
@@ -969,10 +846,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>7.0000000000000007E-2</v>
@@ -980,27 +857,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>0.1</v>
@@ -1008,7 +885,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1016,10 +893,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>0.04</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89B1B79A-1425-46AD-9121-6360B243EFC8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>firnut</t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t>Beryl Park, B5</t>
-  </si>
-  <si>
-    <t>mine for garnet</t>
   </si>
   <si>
     <t>Loudthunder forest</t>
@@ -143,9 +141,6 @@
     <t>Roof of Cloth : Waxed Cotton Fabric</t>
   </si>
   <si>
-    <t>Wall of Cloth : Hemp Fabric</t>
-  </si>
-  <si>
     <t>(20 frames/vaults + 800 free space).</t>
   </si>
   <si>
@@ -165,12 +160,6 @@
   </si>
   <si>
     <t>Framework : Maple Plank</t>
-  </si>
-  <si>
-    <t>Mine (Loudthunder forest) (20 frames/vaults + 800 free space).</t>
-  </si>
-  <si>
-    <t>Framework : Fir Plank (NPC item)</t>
   </si>
   <si>
     <t>Beastarium</t>
@@ -179,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,23 +535,23 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -576,23 +565,23 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -613,37 +602,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -669,13 +628,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1">
         <v>15</v>
@@ -683,10 +642,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
@@ -694,10 +653,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>7.0000000000000007E-2</v>
@@ -705,10 +664,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>0.04</v>
@@ -719,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -730,10 +689,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
@@ -741,10 +700,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>7.0000000000000007E-2</v>
@@ -752,10 +711,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>0.04</v>
@@ -766,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -777,10 +736,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>0.1</v>
@@ -788,10 +747,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>7.0000000000000007E-2</v>
@@ -799,7 +758,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>0.04</v>
@@ -810,24 +769,24 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
         <v>0.1</v>
@@ -835,10 +794,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>0.1</v>
@@ -846,10 +805,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>7.0000000000000007E-2</v>
@@ -860,24 +819,24 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>0.1</v>
@@ -885,7 +844,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <v>7.0000000000000007E-2</v>
@@ -893,10 +852,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
         <v>0.04</v>
